--- a/ExampleIG/output/StructureDefinition-no-frist-for-helsehjelp.xlsx
+++ b/ExampleIG/output/StructureDefinition-no-frist-for-helsehjelp.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T00:15:54+02:00</t>
+    <t>2025-07-07T00:32:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
